--- a/story/主线剧情/main/level_st_08-04.xlsx
+++ b/story/主线剧情/main/level_st_08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="957">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="罗德岛干员"] 你刚刚说的这些......什么意思？
 </t>
   </si>
@@ -1927,6 +1933,1910 @@
   </si>
   <si>
     <t xml:space="preserve">「涙鋒の技、断つに当たりて即ち断つ。」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"] What does all of that... mean?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] "Rhodes Island, we invite you to fight with us."  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] That's what I said.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I only speak Ursine. You also asked me in Ursine, so you should have understood. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You know these Chernobog industrial machines much better than us, yes? You must have had a lot more training in such things than we have. We're better fighters.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If you want into the tower, you must have a plan to shut down this thing too. You can't let it close the way. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We need to split our guerrilla forces, sending at least three quarters of our men to protect the Infected around the city, or they're doomed. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Reunion under Talulah is out of control. We've seen enough revenge killings in Chernobog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Even with just a fourth of our full strength, we have what it takes to beat Talulah's stupid guards. But...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We could use some help right now. We'd be able to better capitalize on our victories if we had it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Our Originium Altars are down. The devils are handy in a fight, but they've got nothing on the Captain's legendary strength.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We need more firepower.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Who calls the shots for you? Is it the Cautus? Or the Feline? You're both plenty strong, you could handle it.   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You'll have to ask Amiya. I'm just an operator. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Cautus, what do you say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Sir, what matters is if your Reunion is still dedicated to helping the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] As long as it's not some Infected Ursus political project... we'll proudly agree.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] But... I'm worried...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] About what?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] There are still a lot of open wounds from our conflicts with Reunion. We can't overlook them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] We could say we're willing to forgive, or beg forgiveness, but we have to think about those we lost, or who suffered.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Especially...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Reunion killed my friend. And we just killed someone you looked up to. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Hrm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I get it... I killed your family, didn't I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You can't forgive that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But you're Infected!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If we don't let you in, we're disobeying orders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Our current orders are to crush Talulah and her minions. And anyone who disobeys that order is to be killed. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] So you're letting it go? Can you... let it go? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Yes, you killed our family. You killed our commander, our leader, our Captain. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But we're not going to come to blows over it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You don't want revenge?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Of course we do. I'm not done yet, let me finish, Feline!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But whatever we've got between us personally doesn't matter in the face of the mission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] There's a more important place to direct our hate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Hate...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You get it, don't you, Feline? That Cautus with you is a kid with her head in the clouds, just like the Captain said. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Don't talk about Amiya like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If you really buy into her dreams of reforming everybody, then by all means, go along with her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  You'll get stabbed in the back, and you won't know until it's too late. You won't be able to save your friends. It all sounds good in theory, but you can't really put it into practice. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] And us, we believe in the Captain. All this way, he's shown us a different way, beyond the endless wars of Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] He showed us a noble path of revenge and ruin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] A path of ruin?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] To ruin our enemies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] How to pick out your enemies and then ruin them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] But who is your enemy? Can you really act like it's a good thing to spread hate, hurt people, start wars, and generally cause misery? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Haven't you lost enough friends? Didn't Ursus...? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] The last emperor promised us an end to this war! We believed in that vision. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But I don't see an end in you. Should we reason with them? They don't listen. Some people are asses, and some are just evil and need to die.   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Listen to me, Feline!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Hm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You won't get the satisfaction you want from killing your enemies. For the simple reason that that's not where it ends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If you're committed to that path, then take it all the way, kill everything, cleanse the country of its filth and when at last you look over the silent white field of snow... then you can finally know happiness!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Think about it. And then we start killing. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Kill the monster in the tower who sent our people to die, kill the tyrants who lord over the cities, kill the useless eaters, and the traitors in the army!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] And at last, kill the miserable Ursus ministers who poison the Emperor with their lies. Kill them all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Then you look back and see what you've done! See those who deserved to live on, their peaceful lives, free from the fear of starvation being forced upon them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I mean, that's what you're doing here, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You kill those who kill your friends!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] You want to kill Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Obviously!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] What else would we want? Will the Captain ever be able to rest in peace as long as she lives? What about Yelena and her Yetis? Or the countless Reunion brothers who she used as cannon fodder?!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We've been waiting for a savior, a good emperor, a hero... and we're sick of waiting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] What did all that waiting get us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Our great Emperor is fallen, with no one to carry on his legacy, with greedy, self-interested men fighting over the scraps, ripping our country in two and milking the people dry!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Our savior was buried alive, and our hero died right in front of us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Not that you would understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But maybe you'll understand something else. Feline, have you ever lost a loved one? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I can see it in your eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I'm done talking to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But you'll listen, Feline. You have the eyes of a warrior. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"] The sealing layer is still rising...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] It hasn't stopped at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] It'll take some time to adjust the Originium drive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] It better not take too long. If this thing seals up, then all the hope of a trial goes with it for at least a few hundred years. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] So you guerrillas don't just fight for the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] The Infected are just one reason to fight. You can have as many as you want! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] The one and only reason we took to the tundra was the injustice and disorder of Ursus. The Captain told us the Infected didn't have to live like this, it's Ursus that tortures the Infected to achieve their ends!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Picture it, our great march... the Captain brought us all here, could that really just be for the Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We crossed from border to border, passing by all the hardened cities, taking control of the lifeblood of the Empire, uniting to strike at the heart of the rotten country...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Don't tell me you've never considered it, Cautus? You're not like this just because you're Infected. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If they treated everyone right, equally, maybe you wouldn't have even gotten infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Think about it, how many city dwellers, nobles, merchants, and performers get infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] And then how many out in the wilderness, the outskirts, and the mines?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] That's why we need to get revenge!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] On who?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Everyone who gets in our way!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] That's not right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Amiya...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Hm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Don't you hate the people who made us what we are?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I'm not talking about righting the wrongs of the Infected! I mean it's wrong to turn this into like, a way to blow off steam, that's what's wrong... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] They did this to us, for their own sakes!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] They turned us into monsters! And... and I hate them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Preach, Feline.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] No...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...That's not right......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is going to hurt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm sorry... Amiya. This shouldn't have happened to you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] It's not right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] But... Amiya, why do you say that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Don't you think we should hate them? You can't say they didn't steal our lives from us. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I don't want to forget... I don't want to forget my friends and family!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I could have worn clothes I liked, and gone to the school I wanted. I could have gotten to know my mom and dad and everyone, I could have...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I could have... my brothers... *whimper*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis, calm... calm down!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I can’t...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I can’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I won't let this go, Amiya... I can't!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] If I have to get hurt to protect them, if I have to suffer to keep them from suffering...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Then I'll take it all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] If killing the people who ruined our lives would make you all feel even a little better, and if you're not willing to do it, then let me do it for you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"] Rosmontis, Amiya, we've got a transmission from the engineer team!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Something weird's happening, the drive system isn't moving!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] ...Is it the enemy? Captain, if you can hear me, this is... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] No! They must be... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Captain! Look out for Ur— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Woman's Voice"]  Get back! Jump! Hurry! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] What happened? Come in... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ...Do you copy?! Lavaca! Bluishsilver!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] No, no no no...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] The sealing layer is still rising!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] (Did the engineer team... get ambushed?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] No, it can't be. Bluishsilver, she... I'll can't reach her, I can't feel her anymore!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] ...Prepare the explosives. Let's blow the whole joint. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] If we destroy the sealing layer, it will take a few blocks with it. And there are still some Infected who didn't want to join Reunion hiding in the area!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] There's no time. If we keep waiting only more people will die! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"] We've lost comms!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If you don't like my plan then give us a better one!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I get where you're coming from... I dunno. It's just... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] My team... my squad... I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] They did everything right! How could this happen to them?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] If you need strength, if you need to destroy, I can do it! I can do it better! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Ah... ahhh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis! Curl your fingers! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I just... tear... destroy...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Wha... the sealing layer's stopping?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I CAN DO IT!!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"] An explosion?! No way. The Feline, she... how is she tearing that thing apart? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"] ...What... how...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"] It's almost like...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Shh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] (Shakes his head)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] It's just like the first time you saw FrostNova and Talulah, isn't it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Just wait until our infections get worse... maybe you'll see some more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] *Pant*, *pant*... I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Amiya... I... I'm cold... My head...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis! I've got you! Hold on tight, don't let go! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] She shredded the sealing layer all by herself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Not for long, but it should be enough to get us through the sector.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I need a medic! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Hnnngh... Aaugh! It's scratching me, scratching at me! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] These are negative emotions and side effects of direct Arts... They all have to do with Bluishsilver's memories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis... Look at me. Look at my eyes!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] (The black lines flow from the finger of the Lord of Fiends right into the Feline's eyes...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] (She really is...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Nnnngh... I know... Amiya... I know...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Don't ever do that again! B-But, even if I tell you, you'll... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Uh huh... S-Sorry... I won't change. Heh. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Well done, Feline! You really did it! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Brothers, let's move out! Through the fire and the hail of bolts, we go! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You should rest here for a while, Rhodes Islanders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Just give me a minute, guerrilla fighter?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] We don't have a way to stay in communication. Even the operator with you there doesn't have the comms we need to carry out this operation. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] If the Shieldguards really need our help... Then you have to know what we're going to do, at least.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Good thinking. Couldn't hurt to give you a minute. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Especially with all this little Feline did for us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] (Breathes weakly)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I'll be fine. I have to... keep... fighting. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I have to... find... my team.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...Okay. I know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It's Madame Ch'en again...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  So you're really going back?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Definitely.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  But you told me you don't know if your friend in Ursus is alive or dead. What's the point in going back to Lungmen? Why not go right to Ursus after graduation, then? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Ursus wouldn't give someone like me an entry permit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  No way... Oh, it's really so sad to see you go right after you finish. You're such a clever girl, Chenchen. You'd make senior lecturer in no time! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Give it two years and can go anywhere in the world you want, eh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Don't ever call me that again, please.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  And what about you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Me? You know me. I'm not stupid, but compared to you, well... I only eked out passing grades in those joint operations.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You just finished your military strategy course?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Almost failed that one a bunch of times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You've got a better head on your shoulders than 98% of Victoria. At least on paper. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  But I don't see myself becoming a lecturer. I think I'm better off going looking for a fight than setting myself up as a command or logistics officer. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You really don't fear death. A Victorian soldier can end up running into all sorts of things on the battlefield. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  But I know our enemies sure as hell don't wanna run into any Victorians soldiers on the battlefield.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  What I really worry about is sitting in front of a strategic map messing up my head till I can only see human lives as numbers. That's the scariest thing. A soldier on the front lines needs somebody to tell her what to do, and what not to do.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Only when you're in the thick of it do you see how cruel a war is, and how important it is to stop.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You really want to change Victoria? I thought... that was just a drunken ramble. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Nah, not at all. Is it that weird? I just... want to do some good.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Doing good isn't easy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  But it's the reason I'm going back to Lungmen. Lungmen's had enough of the bad. I'll stay there, fix up the bad things, stop it from getting worse.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  So you're going back to become a cop?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  A cop?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Wow. I always thought you had the look of a girl who could give a good beating to a hooligan. I've got a gift!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You're getting ahead of yourself. But the police... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  That's not a bad idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  It'd probably be a great place to pick up clues about what happened back then, and what's happening now... I wouldn't have to rely on my old schemer of an uncle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Honestly I was worried you'd head to military intelligence. My little Chenchen is scary enough, I can't imagine how scary she'd be as a spook.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  And I'll have your bloody head off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Hey! No need to get angry. *Sigh* Alright, I can take it!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hah. We'll see how much you can take. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Oh, someone's at the door. Just a sec! Coming!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Academy Messenger"]  Message for Miss Ch'en Hui-chieh, post-transcribed. Check your terminal. I have to confirm in person that you've read it yourself. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Why all the trouble? I'll take a look. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...What? What... is this? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Academy Messenger"]  I'd say that counts as you having received the message. The academy doesn't review highly classified material, so if you have any further inquiries about the content, I'll advise you to reply to the sender. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Academy Messenger"]  Anything else I can do for you? If that's all, I'll be on my way. Have a good afternoon.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  There we go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Why do they walk so funny?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  I don't like the look of your face there. Did that message sock you in the jaw? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I don't even know what I'm feeling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  They picked up my friend's trail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Well isn't that good?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  It just led to her disappearing again. She... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  She... killed the one who took her. And then... we lost her again. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Erm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  But at least... she's still alive?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  That's true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I'm going right back to Lungmen after graduation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bagpipe"]  Huh? But... well, isn't your friend in Ursus? I really thought you'd be heading that way. I was thinking of knitting you a few scarves as a goodbye gift.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I wouldn't be able to do much in Ursus. But back in Lungmen, I'll have a chance to spread my influence. The city of Lungmen is a lot stronger than me alone. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...I am going to find her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"As move at teardrop's point, once known be deft." 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"] 그게…… 무슨 뜻이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] "로도스 아일랜드, 우리와 함께 싸우자."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 이런 뜻이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 난 우르수스어밖에 할 줄 모른다, 너도 우르수스어로 내게 물었으니 당연히 이해했을 텐데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 너흰 우리보다는 체르노보그의 기계를 다루는 데 더 능숙하겠지. 이런 쪽으로는 우리보다 많은 훈련을 받았을 테니, 대신 우리는 전투에 능하다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 너희도 사령탑에 갈 계획이었다면 저걸 꺼버릴 대원도 정해놨겠지. 놈들이 도로를 봉쇄하지 못하게 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 유격대는 반드시 병력을 나눠야 해. 유격대가 감염자를 지키는 데 70%의 힘을 쏟아붓지 않는다면 그들은 죽게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 탈룰라가 이끄는 리유니온이 광기에 휩싸이면서 체르노보그에선 수많은 보복이 이뤄졌지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 나머지 사분의 일의 유격대로도 충분히 탈룰라의 그 멍청한 위병대를 물리칠 순 있겠지만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] ……지금 같은 상황에서는 조금의 힘이라도 보태는 편이 승기를 쥐는 데 유리하겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 오리지늄 제단은 이미 효력을 잃었다. 우리도 쓸 만한 편이지만 대위님처럼 전설에나 나올 법한 괴력을 내는 건 불가능해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 더 많은 화력이 필요하다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 자, 손을 잡을지 말지는 누가 정할 테냐? 너희들의 리더는 카우투스인가, 아니면 필라인인가? 둘 다 힘이 있으니 큰 임무를 감당할 수 있을 테지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야한테 물어봐, 난 로도스 아일랜드의 오퍼레이터일 뿐이니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 카우투스, 동의하나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 당신이 대표하는 리유니온이 감염자 구조를 최우선 목표라 주장하는 조직이라면,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 우르수스의 특정한 정치 세력을 대표하는 감염자 단체가 아니라면…… 저흰 공적이든 사적이든 모두 동의할 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 하지만…… 전 두려워요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 뭐가 두렵다는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 리유니온과 우리 사이의 갈등과 과거의 불미스러운 사태로 입은 상처가 여전히 남아 있어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 죄를 용서해 주거나 용서를 구하는 태도를 취할 수도 있겠죠. 하지만 그건 피해자를 진정으로 존중하는 태도가 아니라고 생각해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 특히……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 너희 리유니온은 내 친구를 죽였어. 그리고 우린 방금 너희가 존경하는 사람을 죽였지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 흥.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 알아…… 내가 죽인 건 너희 가족이잖아, 그렇지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그건 용서할 수 없는 일이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 하지만 너희는 감염자야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 너희의 합류를 반대하는 감염자가 우리 진영에 있다면 그건 명령을 어기는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 지금의 명령은 탈룰라와 그 부하인 악당을 무너뜨리는 것이지. 그리고 그 명령을 거역하면 사형을 당해 마땅해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 정말 내려놓고 싶은 거 맞아? 너희…… 다 잊고 내려놓을 수 있겠어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그래, 넌 내 가족을 죽였다. 넌 우리의 지휘관이자, 리더이자, 롤모델인 우리의 대위님을 죽였지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그렇다고 해서 네 행동을 이유로 손을 대진 않으마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 복수하고 싶지 않아?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 당연히 하고 싶지. 날 자꾸 여러 번 말하게 하지 마라, 필라인! 내 말을 끝까지 들어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그럼에도 불구하고 더 숭고한 목표 앞에서 개인의 원한은 입에 올릴 가치도 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우리가 증오할 만한 건 따로 있으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 증오……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 필라인, 너도 알고 있지? 네 옆에 있는 저 카우투스는 대위님 말씀대로, 꿈과 이상으로 가득찬 아이일 뿐이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야를 그렇게 말하지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 하, 다른 사람을 함부로 가르치려 드는 아이의 오만한 생각을 믿는다면, 저 아이 말대로 해도 좋다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  넌 사람들에게 배신당하고 죽을 때까지도 진실을 알지 못할 거다, 곁에 있는 사람을 구하지도 못하겠지. 고상해 보일지는 몰라도 텅 빈 깡통에 불과해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우린, 우린 대위님을 믿는다. 대위님께서 그동안 걸어온 길을 보며 우리는 우르수스에서 일어났던 수많은 전투와는 다른 길을 발견했다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 숭고한 복수와 파멸의 길을 말이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 파멸의 길?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 적을 파멸시키는 것이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 적을 확실히 파악하고, 파멸시키는 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 하지만, 하지만…… 누가 적이죠? 증오를 퍼뜨리고, 일방적으로 폭력을 휘둘러 일어난 전쟁…… 그로 인해 휘말린 비극이 좋다는 건가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그때문에 여러분의 친구와 전우를 잃은 거 아니었나요? 우르수스도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 선황께서는 언젠가 이 전쟁이 끝날 거라고 약속하셨다! 그분의 위대한 바람을 우리는 진심으로 믿는다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 네가 한 짓이야말로 전쟁의 종식을 망치는 행동이었다. 이치? 상식? 놈들에게는 통하지 않아. 뼛속부터 악으로 가득 찬 것들은 죽어 마땅해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 잘 들어라, 필라인!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 응?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 원수를 죽인다고 해서 속이 후련하진 않을 거다. 그 이유는 간단해, 그런다고 해서 끝나는 게 아니기 때문이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 한 번 마음 먹은 건 끝까지 해내고, 쓸어버리려거든 몽땅 쓸어버려야 한다. 이 나라 안에 존재하는 더러운 것들을 남김없이 거둬내고 새하얀 설경을 볼 때…… 비로소 마음의 평화를 누릴 것이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 생각해 봐라, 우리가 저 녀석들을 죽이는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 사령탑에서 우리의 동료를 해친 음험한 자들을 죽이고, 도시에서 폭정을 일삼던 통치자들을 죽이는 거다. 군대의 쓰레기와 배신자들 모두!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그리고 마지막에는 지금 황제 옆에서 감언이설로 우르수스를 위협하는 대신들을 전부 쓸어버리는 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 돌아봐라, 다시 돌아봐라! 살아야 할 사람들이 살아남아 행복하게 살아가는 걸 보게 될 거다. 누구를 위해 목숨을 바치지 않고 행복하게 살아가는걸!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 너도 지금 이렇게 하고 있는 것 아닌가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 누군가 네 친구를 죽였다면, 너도 그자를 죽여라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 여러분은 탈룰라를 죽이고 싶은 거군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그야 당연하지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그렇지 않으면? 탈룰라가 멀쩡히 살아있는 한 대위님께선 편히 잠드실 수 없을 거다. 옐레나 아가씨와 눈의 악마 앞에서 우린 고개도 들지 못하겠지. 리유니온의 수많은 동료들이 탈룰라의 꼬임에 넘어가 개죽음당하는 걸 그냥 지켜만 보라는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 새로운 성인과 황제, 그리고 영웅을 기다리기엔…… 우린 너무 지쳤다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 기다린다고 해서 달라질 건 또 뭐지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 위대한 황제께서 세상을 떠났지만 아무도 그분의 위대한 유산을 계승하지 않은 채, 하찮은 이익 때문에 모두들 싸우고 있지. 이 나라를 산산이 갈라놓고, 그의 사람들을 짓밟고 있다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 성인은 산 채로 묻혔고, 영웅은 우리 앞에서 죽었다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그 기분을 너희가 과연 이해할 수 있을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 물론 너희가 이해할 수 있는 부분도 있겠지. 필라인, 넌 가족을 잃어본 적이 있나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 네 눈빛이 대답해 주는군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 너랑 얘기하기 싫어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 하지만 넌 내 말을 들을 거다, 필라인. 넌 전사의 눈빛을 갖고 있으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="환영 석궁병"] 봉쇄층이 계속 올라가고 있어……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 저게 멈추는 걸 우린 본 적이 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 오리지늄 동력 전달을 조정하려면 시간이 많이 필요해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그럼 서두르는 게 좋겠군. 이 문이 닫히면 우르수스의 정의의 문은 수백 년이 지난 후에야 다시 열릴 테니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 유격대는 감염자만을 위해서 싸우는 게 아니에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 물론 아니지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 감염자는 그저 핑계일 뿐. 원한다면 싸워야 할 대상은 얼마든지 있다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우리가 설원을 밟은 이유는 간단해, 우르수스가 공정과 질서를 유린했기 때문이다. 감염자는 그럴 필요 없다고 대위님께서 말씀하셨다. 이건 우르수스 놈들의 수작이라고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그 대장정이 과연 어땠을지 상상해봐라…… 대위님께서 우릴 이곳으로 데려온 게 과연 감염자만을 위해서였겠나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 수많은 땅을 쉴 새 없이 건너며 견고한 요새와 도시를 피해야 했다. 제국의 명맥이 담긴 지휘권을 빼앗아 여러 세력과 손을 잡고 썩어빠진 제국의 심장에 비수를 들이박았다……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 카우투스, 생각해본 적 없나? 단지 네가 감염자라는 이유 하나만으로 이렇게 변한 게 아니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그들이 모든 사람을 공평하게 대한다면 넌 감염자가 되지 않아도 됐을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 상상해봐라. 도시를 차지하고 있는 시민과 귀족, 장사꾼, 그리고 노래하고 춤추는 사람들 중에 몇 명이나 감염되었지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그에 비해 황야와 도시 외곽, 광산에서는 과연 몇 명이나 감염됐을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 이 빚은 반드시 갚아야 한다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 누구를 향한 복수인가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 바른길을 가로막는 모든 사람을 위한 복수다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 아뇨……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 응?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 넌 우릴 이렇게 만든 사람이 밉지 않은 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 감염자가 받은 불공정한 대우를 말하는 게 아니에요. 그 사실이 자신의 분노를 쏟아내는 수단으로 변질됐다는 게……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 녀석들은 자신을 위해 우릴 이렇게 만들었어……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 우릴 괴물로 만든 사람들! 나도…… 나도 그들이 미워.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그렇지, 필라인?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 아냐……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……아니에요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">……미안해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">많이 아플 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미안…… 아미야. 네게 일어나서는 안 되는 일이 어째서……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 아니에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아, 아미야…… 왜 그래…… 왜 그렇게 말하는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그 녀석들이 밉지 않다는 거야? 그 녀석들이 네 삶을 빼앗아 가지 않았다는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그 일을 잊고 싶지 않아…… 친구와 가족을 잊고 싶지 않다고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 좋아하는 옷을 입고 가고 싶던 학교에 가고 싶었어. 엄마 아빠가 어떤 분인지도 알고 싶다고, 그리고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그리고 내, 내…… 소중한 형제도…… 흐흑……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 로즈몬티스 씨, 지, 진정하세요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 상관없어……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 내 알 바 아니야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야가 말한 그것들, 그건…… 나랑은 상관 없는 얘기라고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 내가 다치면 그들은 덜 다칠 거야, 내가 괴로우면 그들의 고통도 덜 수 있을 거야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그런 거라면…… 내가 하겠어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 놈들을 해치우고, 우리의 삶을 송두리째 망친 사람들을 없애서 너희들이 행복해질 수 있다면…… 아미야, 네가 싫으면 내가 하게 해줘!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"] 로즈몬티스 씨, 아미야 씨, 엔지니어링팀에서 통신이……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 이상한 교란을 받아서 전동 장치가 움직이질 않습니다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] ……적인가? 팀장, 들리면 대답해, 여기는……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 아, 안 돼! 녀석들은……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 팀장, 조심하십시오! 여긴 우르……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="여자 목소리"]  물러서! 뛰어내려, 어서!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 무슨 일이야? 빨리 응답해……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……어서 응답해! 라바카! 블루이쉬실버!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아, 안 돼!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 봉쇄층이 계속 올라가고 있다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] (엔지니어링팀…… 매복이라도 당한 건가?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 안 돼, 안 돼! 블루이쉬실버…… 블루이쉬실버랑 연결이 안 돼…… 신호가 안 가!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] ……폭발물을 준비해, 여길 전부 날려 버리겠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 봉쇄층을 폭파하면 인근 거리도 피해를 면치 못할 거예요, 그리고 협조하지 않은 감염자들도 안에 숨어 있을 거라고요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 시간이 없어, 더 꾸물거렸다간 더 많은 사람이 죽게 될 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"] 통신이 완전히 끊겼습니다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 만약 우리 방법이 싫다면 더 나은 방안을 내놓아 봐라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">절대 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 너희가 무슨 말을 하는지…… 모르겠어, 하지만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 내 팀…… 팀원들이…… 난……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 훌륭한 팀원들이었어, 그런데 왜 이런 일을 당해야 하는 거야!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 힘이 필요하다면, 무언가를 파괴해야 한다면, 내가 하면 되잖아!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 로즈몬티스 씨!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아…… 아아……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 로즈몬티스 씨! 멈춰요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그냥…… 찢어버리고…… 부숴버리면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 뭐야…… 봉쇄층이 강제로 멈춘 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그러면 되잖아!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="환영 석궁병"] 폭발인가?! 아니, 아니야…… 필라인, 필라인이…… 대체 뭘로 땅을 가른 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="환영 석궁병"] ……저, 저게 뭐야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="환영 석궁병"] 그러니까 저건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 쉿.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] (고개를 젓는다)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 너희들, 프로스트노바와 탈룰라를 처음 봤을 때도 이러지 않았나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 우리의 감염 증상이 더 심해지면…… 이것보다 더 많은 걸 볼 수 있을지도 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 하아…… 하악…… 나……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야…… 나…… 추워…… 머, 머리가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 로즈몬티스 씨! 제가 잡고 있어요, 제가 잡고 있으니까…… 놓지 말아요, 꽉 잡아요…… 꽉!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 혼자서 봉쇄층을 부순 것인가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 얼마 못 버티겠지만…… 우리가 지나갈 때까진 버틸 수 있을 거야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 메딕! 어서요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 윽, 으윽…… 윽……! 자, 잡아. 날 잡으려고……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 부정적 감정과 직접 작용형 아츠로 인한 부작용인 걸까요?…… 전부 블루이쉬실버 씨와의 기억뿐이에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 로즈몬티스 씨…… 절 봐요, 제 눈을 보라고요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] (검은 선이 마왕의 반지에서 나와 필라인의 눈으로 흘러 들어갔어……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] (역시 저건……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 윽, 으윽…… 아, 알아…… 나도 알아, 아미야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 다시는 그러지 마세요……! 하, 하지만 내가 이렇게 말해도 로즈몬티스 씨는……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 응…… 미, 미안…… 그래도 내 선택은 바뀌지 않을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 잘했다, 필라인. 아주 잘했어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 모두 전진한다! 포화와 화살을 뚫고 전진한다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 너흰 여기에서 쉬고 있어라, 로도스 아일랜드.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 유격대 전사님들, 잠시 기다려 주시겠어요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 지금 저희는 서로 통신할 방법이 없어요. 옆에 계신 전 로도스 아일랜드 직원의 통신 설비도 이번 작전에선 권한이 없어 사용할 수 없고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 여러분이 정말로 우리의 협조를 필요로 하신다면…… 적어도 로도스 아일랜드가 어떻게 할지는 알아야 해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 알겠다. 잠깐은 기다려도 되겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 어쨌든 이 필라인이 우리를 도와준 건 분명하니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 하아…… 하아……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 로즈몬티스 씨……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 난 괜찮아. 난…… 계속…… 싸울 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 가야…… 해…… 엔지니어링팀을 찾아야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 네…… 알겠어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]  그리고 또 첸 팀장님의……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  그러믄 니는 무조건 빠꾸하는 기나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  그래야지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  근데 니도 말했잖나, 지끔 니 친구는 우르수스에서 죽었는지 살았는지 알 길이 없다고. 용문에 가봤자 뭔 소용이 있겠나? 암말 말고 졸업하고 우르수스로 가는 건 어떻나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  우르수스는 나 같은 사람에게 입국 허가증을 주지 않을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  설마...... 야~ 암튼 정말 아숩다야. 졸업 하자마자 떠난다니. 우리 첸 햇아는 대가리도 좋으니 고급 강사 연수도 문제없을 기라고 봐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  경력이 2년인데 문제될 게 뭐 있나? 그 정도문 언 나라에서든 환영 받지 않겠나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  그렇게 좀 부르지 마, 제발.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  ……넌?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  나? 내 대가리가 어떤진 니도 알지 않나? 흐리멍텅한 건 아닌데, 글타고 똑똑하다고도 하기가… 연합 작전 수업 때마다 턱걸이로 합격하는 정도라는 거, 니도 잘 알지 않나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  방금 친 그 군사 전략 시험은 어때?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  할 때마다 아슬아슬하게 합격만 하는 정도니 아이~ 히딱가겠다야~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  됐어, 넌 이미 빅토리아의 98% 사람들보다 머리가 좋아. 적어도 서면상으로는 그래.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  그래도 나는 강사는 되기 싫어~ 그리고 난 첨부터 기술 갈키는 장교가 되기보다는 쫄병부터 하나하나 올라가야 된다고 생각 하거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  넌 정말 죽음이 안 무섭나 보구나. 빅토리아의 병사들이 전장에서 뭘 만날지 누가 알겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  그치만 적들도 전장에선 빅토리아 쫄병아들 마주치기 싫어하지 않나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  ……난 전략 지도 앞에 너무 오래 죽치고 있으면, 사람 목숨을 하나 둘 서이 이런 숫자로 보게 될까 무섭다니. 너무 겁이 난다니. 전선하고 여 주둔지에 있는 쫄병들한테 뭘 해야 하고, 뭘 해선 안되는지 누군가는 알레줘야 돼, 꼭 그래야 된다니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  전장에 직접 나가봐야 전투가 을메나 잔인한지, 그리구 전쟁이란 게 벌어져선 안된다 하는 거를 알 게 아니나? 그렇지 않나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  너, 정말로 빅토리아를 바꾸고 싶은 거야? 난…… 네가 술김에 한 소리인줄 알았는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  술 먹고 한 얘기는 아닌데? 그러 이상하나? 야, 난도 좋은 일 좀 하고 숲다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  쉽지 않을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  내가 용문으로 돌아가는 것도 비슷한 이유야. 난 더는 용문에 나쁜 일이 안 생겼으면 하거든. 용문에 머물면서, 나쁜 일들을 해결하고 막을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  …….니는 돌아가서 경찰 될라 그리나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  경찰?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  와~ 히딱가겠다야~ 나는 우리 첸 햇아가 그런 사람처럼 보옛거든, 나쁜 아새끼들 막 쎄러대는 그런 사람 말이다. 내가 사람은 똑대개 봤다야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  멋대로 결론 내리지 마. 하지만 경찰도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  경찰도…… 나쁘진 않겠네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  경찰이라면 단서도 많이 얻을 수 있겠지. 그때의 일도, 지금의 일도 말이야…… 그럼 더 이상 속을 알 수 없는 외삼촌에게 의지하지 않아도 될 테고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  ……전엔 니가 군사정보과 고르면은 어떠하나 쪼끔 무섭기도 했거든. 우리 첸 햇아처럼 음침한 사람이 스파인가 뭔가 된다고 생각해 봐야…… 아이, 생각만 해도 무서울 거 같지 않나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  *빅토리아어 가족 안부 묻기*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  니….! 난 니처럼 더러운 말 안 한다니. 아유…… 내가 참고 말지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  하 씨…… 내가 너 언제까지 참나 지켜본다 진짜.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  아, 뭐이 문을 두드린다야. 잠깐만요! 쫌만 지달레요~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="학교 전달자"]  첸 훼이지에 씨에게 온 전보입니다. 전달 다 끝났으니까 여기 단말기 좀 확인 부탁드릴게요. 이 메시지를 직접 읽었다는 걸 확인해야 되서요, 대면 확인도 좀 필요합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  뭐가 이렇게 복잡해…… 잠시만요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  ……뭐라고? 이건…… 무슨?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="학교 전달자"]  메시지를 받으셨나 보네요. 학교는 기밀 처리된 내용에 대해 조사할 권리가 없습니다. 내용에 대해 더 문의하실 게 있으신 경우엔 번거로우시겠지만 직접 회신해 주시는 게 좋을 것 같습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="학교 전달자"]  더 도와드릴 일 있으실까요? 없으시면, 이만 가보겠습니다. 즐거운 하루 되세요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  아, 갔다야~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  ……왜 복도에서 저러 걷는 거나. 무슨 나래비 행진하는 것도 아니고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  쌍판데기가 안 좋은데. 좀 전에 받은 메시지에 한 방 쎄레 맞은 쌍판데기같다야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  나도 내 기분을 어떻게 표현해야 할지 모르겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  그 사람들이…… 내 친구의 행방을 알고 있대.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  그럼 잘 된 게 아이나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  아니야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  행방을 찾고 보니…… 실종됐다는 걸 확인했대. 그리고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  당시 자신을 납치했던 사람들을 죽이고…… 그리고 또…… 행방불명이 됐대.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  으아…… 진짜 히딱가겠다야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  그래도 적은 맨치로…… 적은 맨치로 살아는 있는 기잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  그러게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  ……졸업하면 난 바로 용문으로 돌아가야겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="백파이프"]  뭐이나? 아니…… 아니, 그 친구 아는 우르수스에 있다 그리지 않았나? 그래서 난 니가 우르수스로 갈 줄 알고, 졸업 마치기 전에 작별 선물로 목도리를 맻 개 떠야 하나 어터해야 하나 생각의 하고 있었다니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  우르수스에는 제약이 많아, 하지만 용문에서는 점차 나만의 장점을 확대할 거야. 용문의 힘은 나 한 사람의 힘보다 강하니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"]  ……난 그녀를 찾고 말 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"누봉의 기술, 잘라야 할 땐 잘라야 하느니."
 </t>
   </si>
 </sst>
@@ -2285,1954 +4195,3412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D14" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" t="s">
+        <v>495</v>
+      </c>
+      <c r="D16" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D17" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>498</v>
+      </c>
+      <c r="D19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D24" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" t="s">
+        <v>505</v>
+      </c>
+      <c r="D26" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>506</v>
+      </c>
+      <c r="D27" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" t="s">
+        <v>507</v>
+      </c>
+      <c r="D28" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" t="s">
+        <v>508</v>
+      </c>
+      <c r="D29" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" t="s">
+        <v>509</v>
+      </c>
+      <c r="D30" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" t="s">
+        <v>511</v>
+      </c>
+      <c r="D32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" t="s">
+        <v>512</v>
+      </c>
+      <c r="D33" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" t="s">
+        <v>513</v>
+      </c>
+      <c r="D34" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D35" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>515</v>
+      </c>
+      <c r="D36" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>517</v>
+      </c>
+      <c r="D38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D41" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>521</v>
+      </c>
+      <c r="D42" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" t="s">
+        <v>522</v>
+      </c>
+      <c r="D43" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>523</v>
+      </c>
+      <c r="D44" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" t="s">
+        <v>524</v>
+      </c>
+      <c r="D45" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" t="s">
+        <v>525</v>
+      </c>
+      <c r="D46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" t="s">
+        <v>526</v>
+      </c>
+      <c r="D47" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" t="s">
+        <v>527</v>
+      </c>
+      <c r="D48" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" t="s">
+        <v>528</v>
+      </c>
+      <c r="D49" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" t="s">
+        <v>529</v>
+      </c>
+      <c r="D50" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" t="s">
+        <v>530</v>
+      </c>
+      <c r="D51" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52" t="s">
+        <v>531</v>
+      </c>
+      <c r="D52" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" t="s">
+        <v>532</v>
+      </c>
+      <c r="D53" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" t="s">
+        <v>533</v>
+      </c>
+      <c r="D54" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" t="s">
+        <v>534</v>
+      </c>
+      <c r="D55" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>297</v>
+      </c>
+      <c r="C56" t="s">
+        <v>535</v>
+      </c>
+      <c r="D56" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" t="s">
+        <v>536</v>
+      </c>
+      <c r="D57" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>299</v>
+      </c>
+      <c r="C58" t="s">
+        <v>537</v>
+      </c>
+      <c r="D58" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" t="s">
+        <v>538</v>
+      </c>
+      <c r="D59" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C60" t="s">
+        <v>539</v>
+      </c>
+      <c r="D60" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C61" t="s">
+        <v>540</v>
+      </c>
+      <c r="D61" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" t="s">
+        <v>541</v>
+      </c>
+      <c r="D62" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" t="s">
+        <v>542</v>
+      </c>
+      <c r="D63" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" t="s">
+        <v>543</v>
+      </c>
+      <c r="D64" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" t="s">
+        <v>544</v>
+      </c>
+      <c r="D65" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" t="s">
+        <v>545</v>
+      </c>
+      <c r="D66" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" t="s">
+        <v>546</v>
+      </c>
+      <c r="D67" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>309</v>
+      </c>
+      <c r="C68" t="s">
+        <v>547</v>
+      </c>
+      <c r="D68" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" t="s">
+        <v>548</v>
+      </c>
+      <c r="D69" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" t="s">
+        <v>549</v>
+      </c>
+      <c r="D70" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" t="s">
+        <v>550</v>
+      </c>
+      <c r="D71" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>313</v>
+      </c>
+      <c r="C72" t="s">
+        <v>551</v>
+      </c>
+      <c r="D72" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>303</v>
+      </c>
+      <c r="C73" t="s">
+        <v>541</v>
+      </c>
+      <c r="D73" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C74" t="s">
+        <v>552</v>
+      </c>
+      <c r="D74" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" t="s">
+        <v>553</v>
+      </c>
+      <c r="D75" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>316</v>
+      </c>
+      <c r="C76" t="s">
+        <v>554</v>
+      </c>
+      <c r="D76" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" t="s">
+        <v>555</v>
+      </c>
+      <c r="D77" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" t="s">
+        <v>556</v>
+      </c>
+      <c r="D78" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" t="s">
+        <v>557</v>
+      </c>
+      <c r="D79" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>320</v>
+      </c>
+      <c r="C80" t="s">
+        <v>558</v>
+      </c>
+      <c r="D80" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" t="s">
+        <v>559</v>
+      </c>
+      <c r="D81" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" t="s">
+        <v>544</v>
+      </c>
+      <c r="D82" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" t="s">
+        <v>560</v>
+      </c>
+      <c r="D83" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" t="s">
+        <v>561</v>
+      </c>
+      <c r="D84" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85" t="s">
+        <v>562</v>
+      </c>
+      <c r="D85" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" t="s">
+        <v>563</v>
+      </c>
+      <c r="D86" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" t="s">
+        <v>564</v>
+      </c>
+      <c r="D87" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" t="s">
+        <v>565</v>
+      </c>
+      <c r="D88" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>329</v>
+      </c>
+      <c r="C89" t="s">
+        <v>566</v>
+      </c>
+      <c r="D89" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" t="s">
+        <v>567</v>
+      </c>
+      <c r="D90" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" t="s">
+        <v>568</v>
+      </c>
+      <c r="D91" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" t="s">
+        <v>569</v>
+      </c>
+      <c r="D92" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>333</v>
+      </c>
+      <c r="C93" t="s">
+        <v>570</v>
+      </c>
+      <c r="D93" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" t="s">
+        <v>571</v>
+      </c>
+      <c r="D94" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" t="s">
+        <v>572</v>
+      </c>
+      <c r="D95" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" t="s">
+        <v>573</v>
+      </c>
+      <c r="D96" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" t="s">
+        <v>541</v>
+      </c>
+      <c r="D97" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>337</v>
+      </c>
+      <c r="C98" t="s">
+        <v>574</v>
+      </c>
+      <c r="D98" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" t="s">
+        <v>575</v>
+      </c>
+      <c r="D99" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" t="s">
+        <v>576</v>
+      </c>
+      <c r="D100" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" t="s">
+        <v>577</v>
+      </c>
+      <c r="D101" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>341</v>
+      </c>
+      <c r="C102" t="s">
+        <v>578</v>
+      </c>
+      <c r="D102" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103" t="s">
+        <v>579</v>
+      </c>
+      <c r="D103" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>343</v>
+      </c>
+      <c r="C104" t="s">
+        <v>580</v>
+      </c>
+      <c r="D104" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" t="s">
+        <v>581</v>
+      </c>
+      <c r="D105" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>345</v>
+      </c>
+      <c r="C106" t="s">
+        <v>582</v>
+      </c>
+      <c r="D106" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>346</v>
+      </c>
+      <c r="C107" t="s">
+        <v>583</v>
+      </c>
+      <c r="D107" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" t="s">
+        <v>584</v>
+      </c>
+      <c r="D108" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" t="s">
+        <v>585</v>
+      </c>
+      <c r="D109" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>349</v>
+      </c>
+      <c r="C110" t="s">
+        <v>586</v>
+      </c>
+      <c r="D110" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" t="s">
+        <v>587</v>
+      </c>
+      <c r="D111" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>351</v>
+      </c>
+      <c r="C112" t="s">
+        <v>588</v>
+      </c>
+      <c r="D112" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>352</v>
+      </c>
+      <c r="C113" t="s">
+        <v>589</v>
+      </c>
+      <c r="D113" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" t="s">
+        <v>590</v>
+      </c>
+      <c r="D114" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" t="s">
+        <v>591</v>
+      </c>
+      <c r="D115" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>355</v>
+      </c>
+      <c r="C116" t="s">
+        <v>592</v>
+      </c>
+      <c r="D116" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>356</v>
+      </c>
+      <c r="C117" t="s">
+        <v>593</v>
+      </c>
+      <c r="D117" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" t="s">
+        <v>594</v>
+      </c>
+      <c r="D118" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" t="s">
+        <v>595</v>
+      </c>
+      <c r="D119" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" t="s">
+        <v>596</v>
+      </c>
+      <c r="D120" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" t="s">
+        <v>597</v>
+      </c>
+      <c r="D121" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" t="s">
+        <v>598</v>
+      </c>
+      <c r="D122" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" t="s">
+        <v>599</v>
+      </c>
+      <c r="D123" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>363</v>
+      </c>
+      <c r="C124" t="s">
+        <v>600</v>
+      </c>
+      <c r="D124" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" t="s">
+        <v>601</v>
+      </c>
+      <c r="D125" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>365</v>
+      </c>
+      <c r="C126" t="s">
+        <v>602</v>
+      </c>
+      <c r="D126" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127" t="s">
+        <v>541</v>
+      </c>
+      <c r="D127" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>366</v>
+      </c>
+      <c r="C128" t="s">
+        <v>603</v>
+      </c>
+      <c r="D128" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>367</v>
+      </c>
+      <c r="C129" t="s">
+        <v>604</v>
+      </c>
+      <c r="D129" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>368</v>
+      </c>
+      <c r="C130" t="s">
+        <v>605</v>
+      </c>
+      <c r="D130" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131" t="s">
+        <v>606</v>
+      </c>
+      <c r="D131" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
+        <v>607</v>
+      </c>
+      <c r="D132" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>371</v>
+      </c>
+      <c r="C133" t="s">
+        <v>608</v>
+      </c>
+      <c r="D133" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" t="s">
+        <v>609</v>
+      </c>
+      <c r="D134" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>373</v>
+      </c>
+      <c r="C135" t="s">
+        <v>610</v>
+      </c>
+      <c r="D135" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>374</v>
+      </c>
+      <c r="C136" t="s">
+        <v>611</v>
+      </c>
+      <c r="D136" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>375</v>
+      </c>
+      <c r="C137" t="s">
+        <v>612</v>
+      </c>
+      <c r="D137" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>376</v>
+      </c>
+      <c r="C138" t="s">
+        <v>613</v>
+      </c>
+      <c r="D138" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>377</v>
+      </c>
+      <c r="C139" t="s">
+        <v>614</v>
+      </c>
+      <c r="D139" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>378</v>
+      </c>
+      <c r="C140" t="s">
+        <v>615</v>
+      </c>
+      <c r="D140" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>379</v>
+      </c>
+      <c r="C141" t="s">
+        <v>616</v>
+      </c>
+      <c r="D141" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>380</v>
+      </c>
+      <c r="C142" t="s">
+        <v>617</v>
+      </c>
+      <c r="D142" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>381</v>
+      </c>
+      <c r="C143" t="s">
+        <v>618</v>
+      </c>
+      <c r="D143" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>382</v>
+      </c>
+      <c r="C144" t="s">
+        <v>619</v>
+      </c>
+      <c r="D144" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>383</v>
+      </c>
+      <c r="C145" t="s">
+        <v>620</v>
+      </c>
+      <c r="D145" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" t="s">
+        <v>621</v>
+      </c>
+      <c r="D146" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>385</v>
+      </c>
+      <c r="C147" t="s">
+        <v>622</v>
+      </c>
+      <c r="D147" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>386</v>
+      </c>
+      <c r="C148" t="s">
+        <v>623</v>
+      </c>
+      <c r="D148" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>387</v>
+      </c>
+      <c r="C149" t="s">
+        <v>624</v>
+      </c>
+      <c r="D149" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>388</v>
+      </c>
+      <c r="C150" t="s">
+        <v>625</v>
+      </c>
+      <c r="D150" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" t="s">
+        <v>626</v>
+      </c>
+      <c r="D151" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>390</v>
+      </c>
+      <c r="C152" t="s">
+        <v>627</v>
+      </c>
+      <c r="D152" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>391</v>
+      </c>
+      <c r="C153" t="s">
+        <v>628</v>
+      </c>
+      <c r="D153" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>392</v>
+      </c>
+      <c r="C154" t="s">
+        <v>629</v>
+      </c>
+      <c r="D154" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>393</v>
+      </c>
+      <c r="C155" t="s">
+        <v>630</v>
+      </c>
+      <c r="D155" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>394</v>
+      </c>
+      <c r="C156" t="s">
+        <v>631</v>
+      </c>
+      <c r="D156" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>395</v>
+      </c>
+      <c r="C157" t="s">
+        <v>632</v>
+      </c>
+      <c r="D157" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>396</v>
+      </c>
+      <c r="C158" t="s">
+        <v>633</v>
+      </c>
+      <c r="D158" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>397</v>
+      </c>
+      <c r="C159" t="s">
+        <v>634</v>
+      </c>
+      <c r="D159" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>398</v>
+      </c>
+      <c r="C160" t="s">
+        <v>635</v>
+      </c>
+      <c r="D160" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>399</v>
+      </c>
+      <c r="C161" t="s">
+        <v>636</v>
+      </c>
+      <c r="D161" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>400</v>
+      </c>
+      <c r="C162" t="s">
+        <v>637</v>
+      </c>
+      <c r="D162" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>401</v>
+      </c>
+      <c r="C163" t="s">
+        <v>638</v>
+      </c>
+      <c r="D163" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>402</v>
+      </c>
+      <c r="C164" t="s">
+        <v>639</v>
+      </c>
+      <c r="D164" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>403</v>
+      </c>
+      <c r="C165" t="s">
+        <v>640</v>
+      </c>
+      <c r="D165" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>404</v>
+      </c>
+      <c r="C166" t="s">
+        <v>641</v>
+      </c>
+      <c r="D166" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>405</v>
+      </c>
+      <c r="C167" t="s">
+        <v>642</v>
+      </c>
+      <c r="D167" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>406</v>
+      </c>
+      <c r="C168" t="s">
+        <v>643</v>
+      </c>
+      <c r="D168" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>407</v>
+      </c>
+      <c r="C169" t="s">
+        <v>644</v>
+      </c>
+      <c r="D169" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>408</v>
+      </c>
+      <c r="C170" t="s">
+        <v>645</v>
+      </c>
+      <c r="D170" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>409</v>
+      </c>
+      <c r="C171" t="s">
+        <v>646</v>
+      </c>
+      <c r="D171" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>410</v>
+      </c>
+      <c r="C172" t="s">
+        <v>647</v>
+      </c>
+      <c r="D172" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>411</v>
+      </c>
+      <c r="C173" t="s">
+        <v>648</v>
+      </c>
+      <c r="D173" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>412</v>
+      </c>
+      <c r="C174" t="s">
+        <v>649</v>
+      </c>
+      <c r="D174" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>413</v>
+      </c>
+      <c r="C175" t="s">
+        <v>650</v>
+      </c>
+      <c r="D175" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>414</v>
+      </c>
+      <c r="C176" t="s">
+        <v>651</v>
+      </c>
+      <c r="D176" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>415</v>
+      </c>
+      <c r="C177" t="s">
+        <v>652</v>
+      </c>
+      <c r="D177" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>416</v>
+      </c>
+      <c r="C178" t="s">
+        <v>653</v>
+      </c>
+      <c r="D178" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>417</v>
+      </c>
+      <c r="C179" t="s">
+        <v>654</v>
+      </c>
+      <c r="D179" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>418</v>
+      </c>
+      <c r="C180" t="s">
+        <v>655</v>
+      </c>
+      <c r="D180" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>419</v>
+      </c>
+      <c r="C181" t="s">
+        <v>656</v>
+      </c>
+      <c r="D181" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>420</v>
+      </c>
+      <c r="C182" t="s">
+        <v>657</v>
+      </c>
+      <c r="D182" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>421</v>
+      </c>
+      <c r="C183" t="s">
+        <v>658</v>
+      </c>
+      <c r="D183" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>422</v>
+      </c>
+      <c r="C184" t="s">
+        <v>659</v>
+      </c>
+      <c r="D184" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>423</v>
+      </c>
+      <c r="C185" t="s">
+        <v>660</v>
+      </c>
+      <c r="D185" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>424</v>
+      </c>
+      <c r="C186" t="s">
+        <v>661</v>
+      </c>
+      <c r="D186" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>425</v>
+      </c>
+      <c r="C187" t="s">
+        <v>662</v>
+      </c>
+      <c r="D187" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>426</v>
+      </c>
+      <c r="C188" t="s">
+        <v>663</v>
+      </c>
+      <c r="D188" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>427</v>
+      </c>
+      <c r="C189" t="s">
+        <v>664</v>
+      </c>
+      <c r="D189" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>428</v>
+      </c>
+      <c r="C190" t="s">
+        <v>665</v>
+      </c>
+      <c r="D190" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>429</v>
+      </c>
+      <c r="C191" t="s">
+        <v>666</v>
+      </c>
+      <c r="D191" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192" t="s">
+        <v>667</v>
+      </c>
+      <c r="D192" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>431</v>
+      </c>
+      <c r="C193" t="s">
+        <v>668</v>
+      </c>
+      <c r="D193" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>432</v>
+      </c>
+      <c r="C194" t="s">
+        <v>669</v>
+      </c>
+      <c r="D194" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>433</v>
+      </c>
+      <c r="C195" t="s">
+        <v>670</v>
+      </c>
+      <c r="D195" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>434</v>
+      </c>
+      <c r="C196" t="s">
+        <v>671</v>
+      </c>
+      <c r="D196" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>435</v>
+      </c>
+      <c r="C197" t="s">
+        <v>672</v>
+      </c>
+      <c r="D197" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>436</v>
+      </c>
+      <c r="C198" t="s">
+        <v>673</v>
+      </c>
+      <c r="D198" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>437</v>
+      </c>
+      <c r="C199" t="s">
+        <v>674</v>
+      </c>
+      <c r="D199" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>438</v>
+      </c>
+      <c r="C200" t="s">
+        <v>675</v>
+      </c>
+      <c r="D200" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>439</v>
+      </c>
+      <c r="C201" t="s">
+        <v>676</v>
+      </c>
+      <c r="D201" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>440</v>
+      </c>
+      <c r="C202" t="s">
+        <v>677</v>
+      </c>
+      <c r="D202" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>441</v>
+      </c>
+      <c r="C203" t="s">
+        <v>678</v>
+      </c>
+      <c r="D203" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>442</v>
+      </c>
+      <c r="C204" t="s">
+        <v>679</v>
+      </c>
+      <c r="D204" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>443</v>
+      </c>
+      <c r="C205" t="s">
+        <v>680</v>
+      </c>
+      <c r="D205" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>444</v>
+      </c>
+      <c r="C206" t="s">
+        <v>681</v>
+      </c>
+      <c r="D206" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>445</v>
+      </c>
+      <c r="C207" t="s">
+        <v>682</v>
+      </c>
+      <c r="D207" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>446</v>
+      </c>
+      <c r="C208" t="s">
+        <v>683</v>
+      </c>
+      <c r="D208" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>447</v>
+      </c>
+      <c r="C209" t="s">
+        <v>684</v>
+      </c>
+      <c r="D209" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>448</v>
+      </c>
+      <c r="C210" t="s">
+        <v>685</v>
+      </c>
+      <c r="D210" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>449</v>
+      </c>
+      <c r="C211" t="s">
+        <v>686</v>
+      </c>
+      <c r="D211" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>450</v>
+      </c>
+      <c r="C212" t="s">
+        <v>687</v>
+      </c>
+      <c r="D212" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>451</v>
+      </c>
+      <c r="C213" t="s">
+        <v>688</v>
+      </c>
+      <c r="D213" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>452</v>
+      </c>
+      <c r="C214" t="s">
+        <v>689</v>
+      </c>
+      <c r="D214" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>453</v>
+      </c>
+      <c r="C215" t="s">
+        <v>690</v>
+      </c>
+      <c r="D215" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>454</v>
+      </c>
+      <c r="C216" t="s">
+        <v>691</v>
+      </c>
+      <c r="D216" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>455</v>
+      </c>
+      <c r="C217" t="s">
+        <v>692</v>
+      </c>
+      <c r="D217" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>456</v>
+      </c>
+      <c r="C218" t="s">
+        <v>693</v>
+      </c>
+      <c r="D218" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>457</v>
+      </c>
+      <c r="C219" t="s">
+        <v>694</v>
+      </c>
+      <c r="D219" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>458</v>
+      </c>
+      <c r="C220" t="s">
+        <v>695</v>
+      </c>
+      <c r="D220" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>459</v>
+      </c>
+      <c r="C221" t="s">
+        <v>696</v>
+      </c>
+      <c r="D221" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>460</v>
+      </c>
+      <c r="C222" t="s">
+        <v>697</v>
+      </c>
+      <c r="D222" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+      <c r="C223" t="s">
+        <v>698</v>
+      </c>
+      <c r="D223" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>461</v>
+      </c>
+      <c r="C224" t="s">
+        <v>699</v>
+      </c>
+      <c r="D224" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>462</v>
+      </c>
+      <c r="C225" t="s">
+        <v>700</v>
+      </c>
+      <c r="D225" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>463</v>
+      </c>
+      <c r="C226" t="s">
+        <v>701</v>
+      </c>
+      <c r="D226" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>464</v>
+      </c>
+      <c r="C227" t="s">
+        <v>702</v>
+      </c>
+      <c r="D227" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>465</v>
+      </c>
+      <c r="C228" t="s">
+        <v>703</v>
+      </c>
+      <c r="D228" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>466</v>
+      </c>
+      <c r="C229" t="s">
+        <v>704</v>
+      </c>
+      <c r="D229" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>467</v>
+      </c>
+      <c r="C230" t="s">
+        <v>705</v>
+      </c>
+      <c r="D230" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>468</v>
+      </c>
+      <c r="C231" t="s">
+        <v>706</v>
+      </c>
+      <c r="D231" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>469</v>
+      </c>
+      <c r="C232" t="s">
+        <v>707</v>
+      </c>
+      <c r="D232" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>470</v>
+      </c>
+      <c r="C233" t="s">
+        <v>708</v>
+      </c>
+      <c r="D233" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>471</v>
+      </c>
+      <c r="C234" t="s">
+        <v>709</v>
+      </c>
+      <c r="D234" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>472</v>
+      </c>
+      <c r="C235" t="s">
+        <v>710</v>
+      </c>
+      <c r="D235" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236" t="s">
+        <v>711</v>
+      </c>
+      <c r="D236" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>474</v>
+      </c>
+      <c r="C237" t="s">
+        <v>712</v>
+      </c>
+      <c r="D237" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>475</v>
+      </c>
+      <c r="C238" t="s">
+        <v>713</v>
+      </c>
+      <c r="D238" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" t="s">
+        <v>714</v>
+      </c>
+      <c r="D239" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>477</v>
+      </c>
+      <c r="C240" t="s">
+        <v>715</v>
+      </c>
+      <c r="D240" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>478</v>
+      </c>
+      <c r="C241" t="s">
+        <v>716</v>
+      </c>
+      <c r="D241" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+      <c r="C242" t="s">
+        <v>717</v>
+      </c>
+      <c r="D242" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>62</v>
-      </c>
-      <c r="B127" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>142</v>
-      </c>
-      <c r="B145" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>149</v>
-      </c>
-      <c r="B152" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>153</v>
-      </c>
-      <c r="B156" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>155</v>
-      </c>
-      <c r="B158" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>156</v>
-      </c>
-      <c r="B159" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>158</v>
-      </c>
-      <c r="B161" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>159</v>
-      </c>
-      <c r="B162" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>160</v>
-      </c>
-      <c r="B163" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B166" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>164</v>
-      </c>
-      <c r="B167" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>165</v>
-      </c>
-      <c r="B168" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>167</v>
-      </c>
-      <c r="B170" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>168</v>
-      </c>
-      <c r="B171" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>169</v>
-      </c>
-      <c r="B172" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>170</v>
-      </c>
-      <c r="B173" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>171</v>
-      </c>
-      <c r="B174" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>172</v>
-      </c>
-      <c r="B175" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>173</v>
-      </c>
-      <c r="B176" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>175</v>
-      </c>
-      <c r="B178" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>176</v>
-      </c>
-      <c r="B179" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>177</v>
-      </c>
-      <c r="B180" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>178</v>
-      </c>
-      <c r="B181" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>179</v>
-      </c>
-      <c r="B182" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>180</v>
-      </c>
-      <c r="B183" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>181</v>
-      </c>
-      <c r="B184" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>182</v>
-      </c>
-      <c r="B185" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>183</v>
-      </c>
-      <c r="B186" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B187" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>185</v>
-      </c>
-      <c r="B188" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>186</v>
-      </c>
-      <c r="B189" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>187</v>
-      </c>
-      <c r="B190" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>188</v>
-      </c>
-      <c r="B191" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>189</v>
-      </c>
-      <c r="B192" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>190</v>
-      </c>
-      <c r="B193" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>191</v>
-      </c>
-      <c r="B194" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>192</v>
-      </c>
-      <c r="B195" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>193</v>
-      </c>
-      <c r="B196" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>194</v>
-      </c>
-      <c r="B197" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>195</v>
-      </c>
-      <c r="B198" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>196</v>
-      </c>
-      <c r="B199" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>197</v>
-      </c>
-      <c r="B200" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>198</v>
-      </c>
-      <c r="B201" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>199</v>
-      </c>
-      <c r="B202" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>200</v>
-      </c>
-      <c r="B203" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>201</v>
-      </c>
-      <c r="B204" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>202</v>
-      </c>
-      <c r="B205" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>203</v>
-      </c>
-      <c r="B206" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>204</v>
-      </c>
-      <c r="B207" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>205</v>
-      </c>
-      <c r="B208" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>206</v>
-      </c>
-      <c r="B209" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>207</v>
-      </c>
-      <c r="B210" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>208</v>
-      </c>
-      <c r="B211" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>209</v>
-      </c>
-      <c r="B212" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>210</v>
-      </c>
-      <c r="B213" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>211</v>
-      </c>
-      <c r="B214" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>212</v>
-      </c>
-      <c r="B215" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>213</v>
-      </c>
-      <c r="B216" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>214</v>
-      </c>
-      <c r="B217" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>215</v>
-      </c>
-      <c r="B218" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>216</v>
-      </c>
-      <c r="B219" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>217</v>
-      </c>
-      <c r="B220" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>218</v>
-      </c>
-      <c r="B221" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>219</v>
-      </c>
-      <c r="B222" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>220</v>
-      </c>
-      <c r="B223" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>221</v>
-      </c>
-      <c r="B224" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>222</v>
-      </c>
-      <c r="B225" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>223</v>
-      </c>
-      <c r="B226" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>224</v>
-      </c>
-      <c r="B227" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>225</v>
-      </c>
-      <c r="B228" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>226</v>
-      </c>
-      <c r="B229" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>227</v>
-      </c>
-      <c r="B230" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>228</v>
-      </c>
-      <c r="B231" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>229</v>
-      </c>
-      <c r="B232" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
-        <v>230</v>
-      </c>
-      <c r="B233" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
-        <v>231</v>
-      </c>
-      <c r="B234" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>232</v>
-      </c>
-      <c r="B235" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>233</v>
-      </c>
-      <c r="B236" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>234</v>
-      </c>
-      <c r="B237" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>235</v>
-      </c>
-      <c r="B238" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>236</v>
-      </c>
-      <c r="B239" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>237</v>
-      </c>
-      <c r="B240" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>238</v>
-      </c>
-      <c r="B241" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>239</v>
-      </c>
-      <c r="B242" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>240</v>
-      </c>
       <c r="B243" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="C243" t="s">
+        <v>718</v>
+      </c>
+      <c r="D243" t="s">
+        <v>956</v>
       </c>
     </row>
   </sheetData>
